--- a/testProvider/typeOfExcel.xlsx
+++ b/testProvider/typeOfExcel.xlsx
@@ -425,14 +425,18 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
     <col min="3" max="4" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="1"/>
+    <col min="5" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
